--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tukaram\Desktop\git testing\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">                </t>
   </si>
@@ -1976,13 +1981,16 @@
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
+  </si>
+  <si>
+    <t>rushikesh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2157,6 +2165,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2203,7 +2219,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2235,9 +2251,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2269,6 +2286,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2444,14 +2462,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31" style="13" customWidth="1"/>
     <col min="2" max="2" width="14" style="2" customWidth="1"/>
@@ -2459,15 +2477,15 @@
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="21">
+    <row r="3" spans="1:6" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
@@ -2481,7 +2499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="25.5">
+    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -2490,8 +2508,11 @@
         <v>6</v>
       </c>
       <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="25.5">
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
@@ -2501,7 +2522,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="25.5">
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2511,7 +2532,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="25.5">
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
@@ -2521,7 +2542,7 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="25.5">
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
@@ -2531,7 +2552,7 @@
       </c>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="25.5">
+    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -2541,7 +2562,7 @@
       </c>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="25.5">
+    <row r="10" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -2551,7 +2572,7 @@
       </c>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="25.5">
+    <row r="11" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -2561,7 +2582,7 @@
       </c>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="25.5">
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>21</v>
       </c>
@@ -2571,7 +2592,7 @@
       </c>
       <c r="D12" s="6"/>
     </row>
-    <row r="13" spans="1:4" ht="25.5">
+    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>23</v>
       </c>
@@ -2581,7 +2602,7 @@
       </c>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:4" ht="25.5">
+    <row r="14" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
@@ -2591,7 +2612,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:4" ht="25.5">
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>27</v>
       </c>
@@ -2601,7 +2622,7 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="1:4" ht="25.5">
+    <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>29</v>
       </c>
@@ -2611,7 +2632,7 @@
       </c>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="25.5">
+    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
@@ -2621,7 +2642,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" ht="25.5">
+    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
@@ -2631,7 +2652,7 @@
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" ht="25.5">
+    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
@@ -2641,7 +2662,7 @@
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" ht="25.5">
+    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -2649,474 +2670,474 @@
       <c r="C20" s="14"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="21">
+    <row r="37" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="21">
+    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="4"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="16.5">
+    <row r="44" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -3128,24 +3149,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
